--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.30327946554989</v>
+        <v>2.663313</v>
       </c>
       <c r="H2">
-        <v>2.30327946554989</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I2">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J2">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N2">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O2">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P2">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q2">
-        <v>55.12020515844874</v>
+        <v>91.13527634181901</v>
       </c>
       <c r="R2">
-        <v>55.12020515844874</v>
+        <v>820.2174870763711</v>
       </c>
       <c r="S2">
-        <v>0.1193222247163603</v>
+        <v>0.1535526085512718</v>
       </c>
       <c r="T2">
-        <v>0.1193222247163603</v>
+        <v>0.1535526085512718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.30327946554989</v>
+        <v>2.663313</v>
       </c>
       <c r="H3">
-        <v>2.30327946554989</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I3">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J3">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N3">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O3">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P3">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q3">
-        <v>31.89078531172789</v>
+        <v>37.17140766556101</v>
       </c>
       <c r="R3">
-        <v>31.89078531172789</v>
+        <v>334.542668990049</v>
       </c>
       <c r="S3">
-        <v>0.06903601756213584</v>
+        <v>0.06262960776200031</v>
       </c>
       <c r="T3">
-        <v>0.06903601756213584</v>
+        <v>0.06262960776200031</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.30327946554989</v>
+        <v>2.663313</v>
       </c>
       <c r="H4">
-        <v>2.30327946554989</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I4">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J4">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N4">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O4">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P4">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q4">
-        <v>31.44792566257261</v>
+        <v>38.507872333297</v>
       </c>
       <c r="R4">
-        <v>31.44792566257261</v>
+        <v>346.570850999673</v>
       </c>
       <c r="S4">
-        <v>0.06807733102563963</v>
+        <v>0.06488139921098617</v>
       </c>
       <c r="T4">
-        <v>0.06807733102563963</v>
+        <v>0.06488139921098617</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.30327946554989</v>
+        <v>2.663313</v>
       </c>
       <c r="H5">
-        <v>2.30327946554989</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I5">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J5">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N5">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O5">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P5">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q5">
-        <v>23.45826004560758</v>
+        <v>28.33766629987801</v>
       </c>
       <c r="R5">
-        <v>23.45826004560758</v>
+        <v>255.038996698902</v>
       </c>
       <c r="S5">
-        <v>0.0507815921325134</v>
+        <v>0.04774575504968379</v>
       </c>
       <c r="T5">
-        <v>0.0507815921325134</v>
+        <v>0.0477457550496838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.30327946554989</v>
+        <v>2.663313</v>
       </c>
       <c r="H6">
-        <v>2.30327946554989</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I6">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J6">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N6">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O6">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P6">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q6">
-        <v>18.36951980534407</v>
+        <v>21.800181024306</v>
       </c>
       <c r="R6">
-        <v>18.36951980534407</v>
+        <v>196.201629218754</v>
       </c>
       <c r="S6">
-        <v>0.03976567147825513</v>
+        <v>0.03673083352067563</v>
       </c>
       <c r="T6">
-        <v>0.03976567147825513</v>
+        <v>0.03673083352067563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.30327946554989</v>
+        <v>2.663313</v>
       </c>
       <c r="H7">
-        <v>2.30327946554989</v>
+        <v>7.989939000000001</v>
       </c>
       <c r="I7">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527501</v>
       </c>
       <c r="J7">
-        <v>0.3621892908037501</v>
+        <v>0.3794306644527502</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N7">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O7">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P7">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q7">
-        <v>7.024532605540198</v>
+        <v>8.244151338079</v>
       </c>
       <c r="R7">
-        <v>7.024532605540198</v>
+        <v>74.19736204271101</v>
       </c>
       <c r="S7">
-        <v>0.01520645388884574</v>
+        <v>0.0138904603581325</v>
       </c>
       <c r="T7">
-        <v>0.01520645388884574</v>
+        <v>0.01389046035813251</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.15585312321077</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H8">
-        <v>3.15585312321077</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I8">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143826</v>
       </c>
       <c r="J8">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143827</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N8">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O8">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P8">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q8">
-        <v>75.52330240558948</v>
+        <v>108.7688322597074</v>
       </c>
       <c r="R8">
-        <v>75.52330240558948</v>
+        <v>978.9194903373661</v>
       </c>
       <c r="S8">
-        <v>0.1634901110229286</v>
+        <v>0.183263151141507</v>
       </c>
       <c r="T8">
-        <v>0.1634901110229286</v>
+        <v>0.183263151141507</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.15585312321077</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H9">
-        <v>3.15585312321077</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I9">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143826</v>
       </c>
       <c r="J9">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143827</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N9">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O9">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P9">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q9">
-        <v>43.69536390740711</v>
+        <v>44.36361821155045</v>
       </c>
       <c r="R9">
-        <v>43.69536390740711</v>
+        <v>399.2725639039541</v>
       </c>
       <c r="S9">
-        <v>0.09459014196763386</v>
+        <v>0.07474766714489461</v>
       </c>
       <c r="T9">
-        <v>0.09459014196763386</v>
+        <v>0.07474766714489463</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.15585312321077</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H10">
-        <v>3.15585312321077</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I10">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143826</v>
       </c>
       <c r="J10">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143827</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N10">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O10">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P10">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q10">
-        <v>43.0885769204893</v>
+        <v>45.95867236731755</v>
       </c>
       <c r="R10">
-        <v>43.0885769204893</v>
+        <v>413.628051305858</v>
       </c>
       <c r="S10">
-        <v>0.09327659146469507</v>
+        <v>0.07743515256470014</v>
       </c>
       <c r="T10">
-        <v>0.09327659146469507</v>
+        <v>0.07743515256470015</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.15585312321077</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H11">
-        <v>3.15585312321077</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I11">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143826</v>
       </c>
       <c r="J11">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143827</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N11">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O11">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P11">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q11">
-        <v>32.14148536349966</v>
+        <v>33.82065645845467</v>
       </c>
       <c r="R11">
-        <v>32.14148536349966</v>
+        <v>304.385908126092</v>
       </c>
       <c r="S11">
-        <v>0.06957872395860015</v>
+        <v>0.05698397185557354</v>
       </c>
       <c r="T11">
-        <v>0.06957872395860015</v>
+        <v>0.05698397185557354</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.15585312321077</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H12">
-        <v>3.15585312321077</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I12">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143826</v>
       </c>
       <c r="J12">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143827</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N12">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O12">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P12">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q12">
-        <v>25.16911530565698</v>
+        <v>26.018248127876</v>
       </c>
       <c r="R12">
-        <v>25.16911530565698</v>
+        <v>234.164233150884</v>
       </c>
       <c r="S12">
-        <v>0.05448518966466973</v>
+        <v>0.04383779838429425</v>
       </c>
       <c r="T12">
-        <v>0.05448518966466973</v>
+        <v>0.04383779838429425</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.15585312321077</v>
+        <v>3.178631333333334</v>
       </c>
       <c r="H13">
-        <v>3.15585312321077</v>
+        <v>9.535894000000001</v>
       </c>
       <c r="I13">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143826</v>
       </c>
       <c r="J13">
-        <v>0.4962559783441747</v>
+        <v>0.4528458348143827</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N13">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O13">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P13">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q13">
-        <v>9.624708375106966</v>
+        <v>9.83929330122289</v>
       </c>
       <c r="R13">
-        <v>9.624708375106966</v>
+        <v>88.553639711006</v>
       </c>
       <c r="S13">
-        <v>0.02083522026564731</v>
+        <v>0.01657809372341311</v>
       </c>
       <c r="T13">
-        <v>0.02083522026564731</v>
+        <v>0.01657809372341311</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.900192559806218</v>
+        <v>1.177290666666667</v>
       </c>
       <c r="H14">
-        <v>0.900192559806218</v>
+        <v>3.531872</v>
       </c>
       <c r="I14">
-        <v>0.1415547308520753</v>
+        <v>0.1677235007328671</v>
       </c>
       <c r="J14">
-        <v>0.1415547308520753</v>
+        <v>0.1677235007328671</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.9311842018655</v>
+        <v>34.218763</v>
       </c>
       <c r="N14">
-        <v>23.9311842018655</v>
+        <v>102.656289</v>
       </c>
       <c r="O14">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="P14">
-        <v>0.3294471364726637</v>
+        <v>0.4046921425624349</v>
       </c>
       <c r="Q14">
-        <v>21.54267396587143</v>
+        <v>40.28543030477867</v>
       </c>
       <c r="R14">
-        <v>21.54267396587143</v>
+        <v>362.5688727430081</v>
       </c>
       <c r="S14">
-        <v>0.04663480073337483</v>
+        <v>0.06787638286965612</v>
       </c>
       <c r="T14">
-        <v>0.04663480073337483</v>
+        <v>0.06787638286965611</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.900192559806218</v>
+        <v>1.177290666666667</v>
       </c>
       <c r="H15">
-        <v>0.900192559806218</v>
+        <v>3.531872</v>
       </c>
       <c r="I15">
-        <v>0.1415547308520753</v>
+        <v>0.1677235007328671</v>
       </c>
       <c r="J15">
-        <v>0.1415547308520753</v>
+        <v>0.1677235007328671</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.8458167099207</v>
+        <v>13.95683033333333</v>
       </c>
       <c r="N15">
-        <v>13.8458167099207</v>
+        <v>41.870491</v>
       </c>
       <c r="O15">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="P15">
-        <v>0.1906075616121476</v>
+        <v>0.165062061740135</v>
       </c>
       <c r="Q15">
-        <v>12.46390118671122</v>
+        <v>16.43124608768356</v>
       </c>
       <c r="R15">
-        <v>12.46390118671122</v>
+        <v>147.881214789152</v>
       </c>
       <c r="S15">
-        <v>0.02698140208237792</v>
+        <v>0.0276847868332401</v>
       </c>
       <c r="T15">
-        <v>0.02698140208237792</v>
+        <v>0.0276847868332401</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.900192559806218</v>
+        <v>1.177290666666667</v>
       </c>
       <c r="H16">
-        <v>0.900192559806218</v>
+        <v>3.531872</v>
       </c>
       <c r="I16">
-        <v>0.1415547308520753</v>
+        <v>0.1677235007328671</v>
       </c>
       <c r="J16">
-        <v>0.1415547308520753</v>
+        <v>0.1677235007328671</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.6535431904546</v>
+        <v>14.45863566666667</v>
       </c>
       <c r="N16">
-        <v>13.6535431904546</v>
+        <v>43.375907</v>
       </c>
       <c r="O16">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="P16">
-        <v>0.1879606403451804</v>
+        <v>0.1709967203219173</v>
       </c>
       <c r="Q16">
-        <v>12.29081799504008</v>
+        <v>17.02201682310044</v>
       </c>
       <c r="R16">
-        <v>12.29081799504008</v>
+        <v>153.198151407904</v>
       </c>
       <c r="S16">
-        <v>0.02660671785484574</v>
+        <v>0.02868016854623097</v>
       </c>
       <c r="T16">
-        <v>0.02660671785484574</v>
+        <v>0.02868016854623097</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.900192559806218</v>
+        <v>1.177290666666667</v>
       </c>
       <c r="H17">
-        <v>0.900192559806218</v>
+        <v>3.531872</v>
       </c>
       <c r="I17">
-        <v>0.1415547308520753</v>
+        <v>0.1677235007328671</v>
       </c>
       <c r="J17">
-        <v>0.1415547308520753</v>
+        <v>0.1677235007328671</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.1847215661288</v>
+        <v>10.640006</v>
       </c>
       <c r="N17">
-        <v>10.1847215661288</v>
+        <v>31.920018</v>
       </c>
       <c r="O17">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="P17">
-        <v>0.1402073264502707</v>
+        <v>0.1258352566694817</v>
       </c>
       <c r="Q17">
-        <v>9.168210577527079</v>
+        <v>12.52637975707734</v>
       </c>
       <c r="R17">
-        <v>9.168210577527079</v>
+        <v>112.737417813696</v>
       </c>
       <c r="S17">
-        <v>0.01984701035915712</v>
+        <v>0.02110552976422433</v>
       </c>
       <c r="T17">
-        <v>0.01984701035915712</v>
+        <v>0.02110552976422433</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.900192559806218</v>
+        <v>1.177290666666667</v>
       </c>
       <c r="H18">
-        <v>0.900192559806218</v>
+        <v>3.531872</v>
       </c>
       <c r="I18">
-        <v>0.1415547308520753</v>
+        <v>0.1677235007328671</v>
       </c>
       <c r="J18">
-        <v>0.1415547308520753</v>
+        <v>0.1677235007328671</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.97537601498066</v>
+        <v>8.185362</v>
       </c>
       <c r="N18">
-        <v>7.97537601498066</v>
+        <v>24.556086</v>
       </c>
       <c r="O18">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="P18">
-        <v>0.1097925104025285</v>
+        <v>0.09680512663269379</v>
       </c>
       <c r="Q18">
-        <v>7.179374150342555</v>
+        <v>9.636550285887999</v>
       </c>
       <c r="R18">
-        <v>7.179374150342555</v>
+        <v>86.72895257299201</v>
       </c>
       <c r="S18">
-        <v>0.01554164925960359</v>
+        <v>0.01623649472772391</v>
       </c>
       <c r="T18">
-        <v>0.01554164925960359</v>
+        <v>0.01623649472772391</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.900192559806218</v>
+        <v>1.177290666666667</v>
       </c>
       <c r="H19">
-        <v>0.900192559806218</v>
+        <v>3.531872</v>
       </c>
       <c r="I19">
-        <v>0.1415547308520753</v>
+        <v>0.1677235007328671</v>
       </c>
       <c r="J19">
-        <v>0.1415547308520753</v>
+        <v>0.1677235007328671</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.04979604542393</v>
+        <v>3.095449666666667</v>
       </c>
       <c r="N19">
-        <v>3.04979604542393</v>
+        <v>9.286349</v>
       </c>
       <c r="O19">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="P19">
-        <v>0.04198482471720914</v>
+        <v>0.03660869207333731</v>
       </c>
       <c r="Q19">
-        <v>2.745403709017049</v>
+        <v>3.644244001703111</v>
       </c>
       <c r="R19">
-        <v>2.745403709017049</v>
+        <v>32.798196015328</v>
       </c>
       <c r="S19">
-        <v>0.005943150562716098</v>
+        <v>0.006140137991791698</v>
       </c>
       <c r="T19">
-        <v>0.005943150562716098</v>
+        <v>0.006140137991791698</v>
       </c>
     </row>
   </sheetData>
